--- a/Code/Results/Cases/Case_2_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_179/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.39489895235496</v>
+        <v>11.34021225948807</v>
       </c>
       <c r="C2">
-        <v>7.797376320618425</v>
+        <v>11.32962030432695</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.276360067348749</v>
+        <v>13.4550518476423</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>20.1810146955755</v>
+        <v>30.09752767458116</v>
       </c>
       <c r="H2">
-        <v>8.802197150283209</v>
+        <v>14.793806425028</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.25691001372959</v>
+        <v>7.750541073583955</v>
       </c>
       <c r="L2">
-        <v>6.174702013406917</v>
+        <v>9.888356956101726</v>
       </c>
       <c r="M2">
-        <v>9.370621128947478</v>
+        <v>13.61510343499229</v>
       </c>
       <c r="N2">
-        <v>12.87796103836619</v>
+        <v>19.54999094260289</v>
       </c>
       <c r="O2">
-        <v>13.95718311088286</v>
+        <v>22.66362574558043</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.56548982716632</v>
+        <v>11.12324507180015</v>
       </c>
       <c r="C3">
-        <v>7.850850525437325</v>
+        <v>11.35220880986481</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.273895610553735</v>
+        <v>13.48645443091365</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>20.25095944977158</v>
+        <v>30.22426053232374</v>
       </c>
       <c r="H3">
-        <v>8.898039506525832</v>
+        <v>14.84081388119339</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.732927542508591</v>
+        <v>7.582559042601105</v>
       </c>
       <c r="L3">
-        <v>6.091754113677498</v>
+        <v>9.89432869703689</v>
       </c>
       <c r="M3">
-        <v>9.06569032757861</v>
+        <v>13.58291167343278</v>
       </c>
       <c r="N3">
-        <v>13.04032000509231</v>
+        <v>19.60262177698279</v>
       </c>
       <c r="O3">
-        <v>14.09370924332884</v>
+        <v>22.74867085438285</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.02541680529958</v>
+        <v>10.98961040411148</v>
       </c>
       <c r="C4">
-        <v>7.885360806980628</v>
+        <v>11.36694878635508</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.276659681438314</v>
+        <v>13.50768776459958</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>20.31517250621673</v>
+        <v>30.30970854198389</v>
       </c>
       <c r="H4">
-        <v>8.960887211767918</v>
+        <v>14.87156190725347</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.395572895251272</v>
+        <v>7.478340101984481</v>
       </c>
       <c r="L4">
-        <v>6.042771311495405</v>
+        <v>9.899278911124268</v>
       </c>
       <c r="M4">
-        <v>8.876182454594483</v>
+        <v>13.56489077449253</v>
       </c>
       <c r="N4">
-        <v>13.14287122215561</v>
+        <v>19.63657658063364</v>
       </c>
       <c r="O4">
-        <v>14.18682245230778</v>
+        <v>22.80474599032967</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.8120118212711</v>
+        <v>10.93512183525843</v>
       </c>
       <c r="C5">
-        <v>7.899845141404922</v>
+        <v>11.37317491185382</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.278840664197428</v>
+        <v>13.51683162801384</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>20.34645969228849</v>
+        <v>30.34644378372098</v>
       </c>
       <c r="H5">
-        <v>8.987482411711648</v>
+        <v>14.88456663355644</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.254246638074687</v>
+        <v>7.435655946782386</v>
       </c>
       <c r="L5">
-        <v>6.023314901465141</v>
+        <v>9.901619622035051</v>
       </c>
       <c r="M5">
-        <v>8.79849900788321</v>
+        <v>13.55799114790988</v>
       </c>
       <c r="N5">
-        <v>13.18539031082679</v>
+        <v>19.65082671151991</v>
       </c>
       <c r="O5">
-        <v>14.22702088616681</v>
+        <v>22.82856694231684</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.77723089538857</v>
+        <v>10.92607432674154</v>
       </c>
       <c r="C6">
-        <v>7.902275674197242</v>
+        <v>11.37422202693017</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.279265884713444</v>
+        <v>13.51837962831895</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>20.35195747015336</v>
+        <v>30.35265912375429</v>
       </c>
       <c r="H6">
-        <v>8.991957368640051</v>
+        <v>14.88675474409678</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.230549515890564</v>
+        <v>7.428557045338708</v>
       </c>
       <c r="L6">
-        <v>6.020115057591529</v>
+        <v>9.902027850603725</v>
       </c>
       <c r="M6">
-        <v>8.785575648565842</v>
+        <v>13.55687243599557</v>
       </c>
       <c r="N6">
-        <v>13.19249483986565</v>
+        <v>19.65321792704756</v>
       </c>
       <c r="O6">
-        <v>14.23382965802162</v>
+        <v>22.83258097132548</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.022375249373</v>
+        <v>10.98887558126154</v>
       </c>
       <c r="C7">
-        <v>7.885554443343476</v>
+        <v>11.36703186470336</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.276684853040464</v>
+        <v>13.50780909313322</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>20.31557402716123</v>
+        <v>30.31019622134151</v>
       </c>
       <c r="H7">
-        <v>8.961241926133994</v>
+        <v>14.87173537088121</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.393682398990281</v>
+        <v>7.477765238805325</v>
       </c>
       <c r="L7">
-        <v>6.042506854254516</v>
+        <v>9.899309168217259</v>
       </c>
       <c r="M7">
-        <v>8.875136481541741</v>
+        <v>13.56479591913087</v>
       </c>
       <c r="N7">
-        <v>13.14344168748502</v>
+        <v>19.63676708813384</v>
       </c>
       <c r="O7">
-        <v>14.18735555974317</v>
+        <v>22.80506332102497</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.11529119915242</v>
+        <v>11.26553171297321</v>
       </c>
       <c r="C8">
-        <v>7.815465822592073</v>
+        <v>11.33722847695532</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.274610182142252</v>
+        <v>13.46547447725666</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>20.20058091457802</v>
+        <v>30.13963783836934</v>
       </c>
       <c r="H8">
-        <v>8.834399883233978</v>
+        <v>14.80962366690818</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.07952611154376</v>
+        <v>7.692877872300873</v>
       </c>
       <c r="L8">
-        <v>6.145706535967536</v>
+        <v>9.890150052411482</v>
       </c>
       <c r="M8">
-        <v>9.266020700152186</v>
+        <v>13.60364478591942</v>
       </c>
       <c r="N8">
-        <v>12.93335379634446</v>
+        <v>19.56779847058596</v>
       </c>
       <c r="O8">
-        <v>14.00228014539129</v>
+        <v>22.69214874764325</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.01571632950061</v>
+        <v>11.80163083791589</v>
       </c>
       <c r="C9">
-        <v>7.691356400096812</v>
+        <v>11.28566623721214</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.305382740820907</v>
+        <v>13.39793299747578</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>20.15391273241501</v>
+        <v>29.86596217170812</v>
       </c>
       <c r="H9">
-        <v>8.618454829927618</v>
+        <v>14.70275464345141</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.29783000287706</v>
+        <v>8.103785188070265</v>
       </c>
       <c r="L9">
-        <v>6.362841654780094</v>
+        <v>9.882340727553672</v>
       </c>
       <c r="M9">
-        <v>10.00983877187849</v>
+        <v>13.69343013234871</v>
       </c>
       <c r="N9">
-        <v>12.54366675972572</v>
+        <v>19.44550879453419</v>
       </c>
       <c r="O9">
-        <v>13.71686444852971</v>
+        <v>22.50132861034478</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.26633970846503</v>
+        <v>12.18757443620318</v>
       </c>
       <c r="C10">
-        <v>7.608347927351133</v>
+        <v>11.2519440822221</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.350413792847251</v>
+        <v>13.3577283591835</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>20.24214179048773</v>
+        <v>29.70224528409369</v>
       </c>
       <c r="H10">
-        <v>8.481377137701147</v>
+        <v>14.63330356304789</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.11312592431872</v>
+        <v>8.39601285125652</v>
       </c>
       <c r="L10">
-        <v>6.530402395790716</v>
+        <v>9.882745365477742</v>
       </c>
       <c r="M10">
-        <v>10.53696886219902</v>
+        <v>13.76734548632091</v>
       </c>
       <c r="N10">
-        <v>12.27036288281349</v>
+        <v>19.36349229397878</v>
       </c>
       <c r="O10">
-        <v>13.56002507719414</v>
+        <v>22.37979132968457</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.80418217753895</v>
+        <v>12.36063670390971</v>
       </c>
       <c r="C11">
-        <v>7.572373251014679</v>
+        <v>11.23749906490138</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.376003887049883</v>
+        <v>13.34147920372711</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>20.31163692434159</v>
+        <v>29.63593735714563</v>
       </c>
       <c r="H11">
-        <v>8.424091395104341</v>
+        <v>14.60366925046587</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.46637099458688</v>
+        <v>8.526277596857598</v>
       </c>
       <c r="L11">
-        <v>6.60816227226499</v>
+        <v>9.884251819063358</v>
       </c>
       <c r="M11">
-        <v>10.77159968319684</v>
+        <v>13.80261876070499</v>
       </c>
       <c r="N11">
-        <v>12.14872268557301</v>
+        <v>19.32786626909463</v>
       </c>
       <c r="O11">
-        <v>13.50145743049303</v>
+        <v>22.32855287477526</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.00342324138494</v>
+        <v>12.42574908636362</v>
       </c>
       <c r="C12">
-        <v>7.559008874586583</v>
+        <v>11.23215730140395</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.386446174025879</v>
+        <v>13.33561906524219</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>20.34238762005193</v>
+        <v>29.61200755867572</v>
       </c>
       <c r="H12">
-        <v>8.403164010482367</v>
+        <v>14.59272871250515</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.59758285642095</v>
+        <v>8.575177295740396</v>
       </c>
       <c r="L12">
-        <v>6.63781092733612</v>
+        <v>9.885011328610078</v>
       </c>
       <c r="M12">
-        <v>10.85963731831299</v>
+        <v>13.81620576921196</v>
       </c>
       <c r="N12">
-        <v>12.10303679120332</v>
+        <v>19.31461665107308</v>
       </c>
       <c r="O12">
-        <v>13.48123176139057</v>
+        <v>22.30973268358599</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.96070941553495</v>
+        <v>12.4117457153051</v>
       </c>
       <c r="C13">
-        <v>7.561875610074878</v>
+        <v>11.23330204967287</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.384163528388614</v>
+        <v>13.33686812202464</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>20.33556442938663</v>
+        <v>29.61710872829209</v>
       </c>
       <c r="H13">
-        <v>8.407636444109007</v>
+        <v>14.59507244724384</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.56943785446173</v>
+        <v>8.564665615679619</v>
       </c>
       <c r="L13">
-        <v>6.631416829443482</v>
+        <v>9.88483936514792</v>
       </c>
       <c r="M13">
-        <v>10.84071396142577</v>
+        <v>13.81326946325653</v>
       </c>
       <c r="N13">
-        <v>12.11285947285372</v>
+        <v>19.3174594812887</v>
       </c>
       <c r="O13">
-        <v>13.48549899244639</v>
+        <v>22.31376002639161</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.82066237637777</v>
+        <v>12.36600235094369</v>
       </c>
       <c r="C14">
-        <v>7.571268566163873</v>
+        <v>11.23705702731166</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.376847813322913</v>
+        <v>13.34099121503085</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>20.31407675542904</v>
+        <v>29.63394496941179</v>
       </c>
       <c r="H14">
-        <v>8.422354127280968</v>
+        <v>14.60276352983095</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.47721714562102</v>
+        <v>8.530309441364242</v>
       </c>
       <c r="L14">
-        <v>6.610597525525205</v>
+        <v>9.884310522187942</v>
       </c>
       <c r="M14">
-        <v>10.77885923137251</v>
+        <v>13.80373200964149</v>
       </c>
       <c r="N14">
-        <v>12.14495658807824</v>
+        <v>19.32677138662388</v>
       </c>
       <c r="O14">
-        <v>13.4997536422372</v>
+        <v>22.32699284585764</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.7343040351679</v>
+        <v>12.33792640579881</v>
       </c>
       <c r="C15">
-        <v>7.577055731559583</v>
+        <v>11.23937374683708</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.372465153328939</v>
+        <v>13.34355488452554</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>20.30149853098396</v>
+        <v>29.64441141596487</v>
       </c>
       <c r="H15">
-        <v>8.431469946404704</v>
+        <v>14.60751116571227</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.42039622661715</v>
+        <v>8.509208188255716</v>
       </c>
       <c r="L15">
-        <v>6.597870963383848</v>
+        <v>9.884011176042172</v>
       </c>
       <c r="M15">
-        <v>10.74086377328652</v>
+        <v>13.79791974725934</v>
       </c>
       <c r="N15">
-        <v>12.16466575172815</v>
+        <v>19.33250657950919</v>
       </c>
       <c r="O15">
-        <v>13.50874281616964</v>
+        <v>22.33517422642738</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.23056858393488</v>
+        <v>12.17620858965222</v>
       </c>
       <c r="C16">
-        <v>7.610735033017322</v>
+        <v>11.2529060721064</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.348845689053499</v>
+        <v>13.3588313071294</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>20.23820933882785</v>
+        <v>29.7067434555293</v>
       </c>
       <c r="H16">
-        <v>8.485225976234121</v>
+        <v>14.63527962595162</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.08968390192703</v>
+        <v>8.387442106968427</v>
       </c>
       <c r="L16">
-        <v>6.525349946825851</v>
+        <v>9.882673431901821</v>
       </c>
       <c r="M16">
-        <v>10.52152514007879</v>
+        <v>13.76507285412756</v>
       </c>
       <c r="N16">
-        <v>12.27836559153333</v>
+        <v>19.36585433902293</v>
       </c>
       <c r="O16">
-        <v>13.56411947501235</v>
+        <v>22.38322140194683</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.9136130516318</v>
+        <v>12.07631280943392</v>
       </c>
       <c r="C17">
-        <v>7.631854774084106</v>
+        <v>11.2614366808259</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.335676413196278</v>
+        <v>13.36872521864165</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>20.2070579281501</v>
+        <v>29.74707775082602</v>
       </c>
       <c r="H17">
-        <v>8.519527347794478</v>
+        <v>14.65281620854823</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.88227000367353</v>
+        <v>8.312025669641598</v>
       </c>
       <c r="L17">
-        <v>6.481240954031953</v>
+        <v>9.882190698771378</v>
       </c>
       <c r="M17">
-        <v>10.38559321212345</v>
+        <v>13.74533953067183</v>
       </c>
       <c r="N17">
-        <v>12.34879804654784</v>
+        <v>19.38674267867842</v>
       </c>
       <c r="O17">
-        <v>13.60144453510383</v>
+        <v>22.41373422696612</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.72838150518611</v>
+        <v>12.0186230778384</v>
       </c>
       <c r="C18">
-        <v>7.644170318660165</v>
+        <v>11.26642756650998</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.328581322141805</v>
+        <v>13.374607982423</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>20.19189184193394</v>
+        <v>29.77104546168364</v>
       </c>
       <c r="H18">
-        <v>8.539731611092026</v>
+        <v>14.6630872327651</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.76131150377185</v>
+        <v>8.26839918318197</v>
       </c>
       <c r="L18">
-        <v>6.456016243838554</v>
+        <v>9.882037583519915</v>
       </c>
       <c r="M18">
-        <v>10.30692633251194</v>
+        <v>13.73414509341077</v>
       </c>
       <c r="N18">
-        <v>12.38956244589334</v>
+        <v>19.39891563098315</v>
       </c>
       <c r="O18">
-        <v>13.62410857449322</v>
+        <v>22.43166552724204</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.66516134575711</v>
+        <v>11.99905238082542</v>
       </c>
       <c r="C19">
-        <v>7.648368964242848</v>
+        <v>11.26813188947122</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.326260849452632</v>
+        <v>13.37663277827253</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>20.18722275377405</v>
+        <v>29.77929234849215</v>
       </c>
       <c r="H19">
-        <v>8.546652957678313</v>
+        <v>14.66659651671626</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.72007268668153</v>
+        <v>8.253586659561869</v>
       </c>
       <c r="L19">
-        <v>6.447501158581195</v>
+        <v>9.882007163709751</v>
       </c>
       <c r="M19">
-        <v>10.28021048734958</v>
+        <v>13.7303818005272</v>
       </c>
       <c r="N19">
-        <v>12.40340840965877</v>
+        <v>19.40306443997047</v>
       </c>
       <c r="O19">
-        <v>13.6319841642231</v>
+        <v>22.43780220521704</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.94765616613582</v>
+        <v>12.08697139262368</v>
       </c>
       <c r="C20">
-        <v>7.629589140454564</v>
+        <v>11.26051986134114</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.337028544219924</v>
+        <v>13.36765212078105</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>20.21008771473414</v>
+        <v>29.74270452302016</v>
       </c>
       <c r="H20">
-        <v>8.515826492458578</v>
+        <v>14.65093032300841</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.90452147518664</v>
+        <v>8.320079976523076</v>
       </c>
       <c r="L20">
-        <v>6.485921493561678</v>
+        <v>9.8822292048936</v>
       </c>
       <c r="M20">
-        <v>10.40011385971281</v>
+        <v>13.74742411974083</v>
       </c>
       <c r="N20">
-        <v>12.34127422447113</v>
+        <v>19.38450267858058</v>
       </c>
       <c r="O20">
-        <v>13.59734665682936</v>
+        <v>22.41044663629727</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.86191744502341</v>
+        <v>12.3794502318213</v>
       </c>
       <c r="C21">
-        <v>7.568502599329746</v>
+        <v>11.23595062262668</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.378976073793593</v>
+        <v>13.33977221159002</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>20.32026622287529</v>
+        <v>29.62896770447962</v>
       </c>
       <c r="H21">
-        <v>8.418010108810401</v>
+        <v>14.60049684039976</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.50437403768271</v>
+        <v>8.540412658265788</v>
       </c>
       <c r="L21">
-        <v>6.616707301786303</v>
+        <v>9.884460734689249</v>
       </c>
       <c r="M21">
-        <v>10.79705001053839</v>
+        <v>13.80652721421814</v>
       </c>
       <c r="N21">
-        <v>12.13551874461851</v>
+        <v>19.32402971596379</v>
       </c>
       <c r="O21">
-        <v>13.49551277069752</v>
+        <v>22.32309022852172</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.43364809703511</v>
+        <v>12.56811285909376</v>
       </c>
       <c r="C22">
-        <v>7.53008635196062</v>
+        <v>11.22064052122463</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.410781270928153</v>
+        <v>13.3232591158006</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>20.41821110887373</v>
+        <v>29.56151180110435</v>
       </c>
       <c r="H22">
-        <v>8.358562213695501</v>
+        <v>14.56917528401641</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.8815199191099</v>
+        <v>8.681895347611556</v>
       </c>
       <c r="L22">
-        <v>6.703356665047451</v>
+        <v>9.88702051723541</v>
       </c>
       <c r="M22">
-        <v>11.051712027079</v>
+        <v>13.84649029484054</v>
       </c>
       <c r="N22">
-        <v>12.00323622273977</v>
+        <v>19.2859125246342</v>
       </c>
       <c r="O22">
-        <v>13.44039677847804</v>
+        <v>22.26939437696759</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.13085127377348</v>
+        <v>12.46766745534674</v>
       </c>
       <c r="C23">
-        <v>7.550451329096291</v>
+        <v>11.22874359515057</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.393398928666821</v>
+        <v>13.33191628963915</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>20.36349579298087</v>
+        <v>29.59688335103118</v>
       </c>
       <c r="H23">
-        <v>8.389867945423068</v>
+        <v>14.58574229535131</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.68159691719983</v>
+        <v>8.606627648470006</v>
       </c>
       <c r="L23">
-        <v>6.657008794377662</v>
+        <v>9.885553925951667</v>
       </c>
       <c r="M23">
-        <v>10.91625018290387</v>
+        <v>13.82504150336654</v>
       </c>
       <c r="N23">
-        <v>12.07364070706561</v>
+        <v>19.3061280976057</v>
       </c>
       <c r="O23">
-        <v>13.46872731122577</v>
+        <v>22.29774194045895</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.93227465128327</v>
+        <v>12.08215344698595</v>
       </c>
       <c r="C24">
-        <v>7.630612893047088</v>
+        <v>11.26093408588207</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.336415764190788</v>
+        <v>13.36813666208222</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>20.20870941979322</v>
+        <v>29.74467923322542</v>
       </c>
       <c r="H24">
-        <v>8.517498144469007</v>
+        <v>14.65178234307988</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.89446692058809</v>
+        <v>8.316439457495147</v>
       </c>
       <c r="L24">
-        <v>6.483805002450007</v>
+        <v>9.882211408659693</v>
       </c>
       <c r="M24">
-        <v>10.39355068240794</v>
+        <v>13.74648120764046</v>
       </c>
       <c r="N24">
-        <v>12.34467489696183</v>
+        <v>19.38551487180618</v>
       </c>
       <c r="O24">
-        <v>13.5991955617987</v>
+        <v>22.41193174414526</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.52734738376163</v>
+        <v>11.65771456075827</v>
       </c>
       <c r="C25">
-        <v>7.723499601313298</v>
+        <v>11.29888203708117</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.293202635371872</v>
+        <v>13.41454951449291</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>20.14597962721232</v>
+        <v>29.93345992741104</v>
       </c>
       <c r="H25">
-        <v>8.673207697778961</v>
+        <v>14.73007088876406</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.98211579316019</v>
+        <v>7.994114890330914</v>
       </c>
       <c r="L25">
-        <v>6.302618597353293</v>
+        <v>9.883371067021125</v>
       </c>
       <c r="M25">
-        <v>9.811653122011244</v>
+        <v>13.667718695334</v>
       </c>
       <c r="N25">
-        <v>12.64676139316569</v>
+        <v>19.47721143240253</v>
       </c>
       <c r="O25">
-        <v>13.78521905116222</v>
+        <v>22.54967403599906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_179/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.34021225948807</v>
+        <v>12.39489895235493</v>
       </c>
       <c r="C2">
-        <v>11.32962030432695</v>
+        <v>7.7973763206187</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.4550518476423</v>
+        <v>8.276360067348751</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>30.09752767458116</v>
+        <v>20.1810146955755</v>
       </c>
       <c r="H2">
-        <v>14.793806425028</v>
+        <v>8.802197150283209</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.750541073583955</v>
+        <v>10.25691001372962</v>
       </c>
       <c r="L2">
-        <v>9.888356956101726</v>
+        <v>6.174702013406858</v>
       </c>
       <c r="M2">
-        <v>13.61510343499229</v>
+        <v>9.370621128947461</v>
       </c>
       <c r="N2">
-        <v>19.54999094260289</v>
+        <v>12.87796103836622</v>
       </c>
       <c r="O2">
-        <v>22.66362574558043</v>
+        <v>13.95718311088287</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.12324507180015</v>
+        <v>11.5654898271663</v>
       </c>
       <c r="C3">
-        <v>11.35220880986481</v>
+        <v>7.850850525437461</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.48645443091365</v>
+        <v>8.27389561055373</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>30.22426053232374</v>
+        <v>20.25095944977143</v>
       </c>
       <c r="H3">
-        <v>14.84081388119339</v>
+        <v>8.898039506525828</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.582559042601105</v>
+        <v>9.732927542508635</v>
       </c>
       <c r="L3">
-        <v>9.89432869703689</v>
+        <v>6.091754113677452</v>
       </c>
       <c r="M3">
-        <v>13.58291167343278</v>
+        <v>9.065690327578595</v>
       </c>
       <c r="N3">
-        <v>19.60262177698279</v>
+        <v>13.04032000509232</v>
       </c>
       <c r="O3">
-        <v>22.74867085438285</v>
+        <v>14.0937092433288</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.98961040411148</v>
+        <v>11.0254168052996</v>
       </c>
       <c r="C4">
-        <v>11.36694878635508</v>
+        <v>7.885360806980765</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.50768776459958</v>
+        <v>8.276659681438424</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>30.30970854198389</v>
+        <v>20.31517250621651</v>
       </c>
       <c r="H4">
-        <v>14.87156190725347</v>
+        <v>8.960887211767853</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.478340101984481</v>
+        <v>9.39557289525129</v>
       </c>
       <c r="L4">
-        <v>9.899278911124268</v>
+        <v>6.042771311495458</v>
       </c>
       <c r="M4">
-        <v>13.56489077449253</v>
+        <v>8.876182454594504</v>
       </c>
       <c r="N4">
-        <v>19.63657658063364</v>
+        <v>13.14287122215554</v>
       </c>
       <c r="O4">
-        <v>22.80474599032967</v>
+        <v>14.18682245230768</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.93512183525843</v>
+        <v>10.81201182127111</v>
       </c>
       <c r="C5">
-        <v>11.37317491185382</v>
+        <v>7.899845141404785</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.51683162801384</v>
+        <v>8.278840664197421</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>30.34644378372098</v>
+        <v>20.34645969228874</v>
       </c>
       <c r="H5">
-        <v>14.88456663355644</v>
+        <v>8.987482411711651</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.435655946782386</v>
+        <v>9.254246638074642</v>
       </c>
       <c r="L5">
-        <v>9.901619622035051</v>
+        <v>6.023314901465191</v>
       </c>
       <c r="M5">
-        <v>13.55799114790988</v>
+        <v>8.798499007883207</v>
       </c>
       <c r="N5">
-        <v>19.65082671151991</v>
+        <v>13.18539031082679</v>
       </c>
       <c r="O5">
-        <v>22.82856694231684</v>
+        <v>14.22702088616692</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.92607432674154</v>
+        <v>10.7772308953886</v>
       </c>
       <c r="C6">
-        <v>11.37422202693017</v>
+        <v>7.902275674197114</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.51837962831895</v>
+        <v>8.27926588471338</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>30.35265912375429</v>
+        <v>20.35195747015339</v>
       </c>
       <c r="H6">
-        <v>14.88675474409678</v>
+        <v>8.991957368640053</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.428557045338708</v>
+        <v>9.230549515890523</v>
       </c>
       <c r="L6">
-        <v>9.902027850603725</v>
+        <v>6.020115057591472</v>
       </c>
       <c r="M6">
-        <v>13.55687243599557</v>
+        <v>8.785575648565839</v>
       </c>
       <c r="N6">
-        <v>19.65321792704756</v>
+        <v>13.19249483986561</v>
       </c>
       <c r="O6">
-        <v>22.83258097132548</v>
+        <v>14.23382965802163</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.98887558126154</v>
+        <v>11.022375249373</v>
       </c>
       <c r="C7">
-        <v>11.36703186470336</v>
+        <v>7.885554443343475</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.50780909313322</v>
+        <v>8.276684853040475</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>30.31019622134151</v>
+        <v>20.31557402716133</v>
       </c>
       <c r="H7">
-        <v>14.87173537088121</v>
+        <v>8.961241926134118</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.477765238805325</v>
+        <v>9.393682398990268</v>
       </c>
       <c r="L7">
-        <v>9.899309168217259</v>
+        <v>6.042506854254521</v>
       </c>
       <c r="M7">
-        <v>13.56479591913087</v>
+        <v>8.875136481541752</v>
       </c>
       <c r="N7">
-        <v>19.63676708813384</v>
+        <v>13.14344168748506</v>
       </c>
       <c r="O7">
-        <v>22.80506332102497</v>
+        <v>14.18735555974323</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.26553171297321</v>
+        <v>12.1152911991524</v>
       </c>
       <c r="C8">
-        <v>11.33722847695532</v>
+        <v>7.815465822592345</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.46547447725666</v>
+        <v>8.274610182142188</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>30.13963783836934</v>
+        <v>20.20058091457779</v>
       </c>
       <c r="H8">
-        <v>14.80962366690818</v>
+        <v>8.834399883233978</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.692877872300873</v>
+        <v>10.07952611154381</v>
       </c>
       <c r="L8">
-        <v>9.890150052411482</v>
+        <v>6.145706535967511</v>
       </c>
       <c r="M8">
-        <v>13.60364478591942</v>
+        <v>9.266020700152138</v>
       </c>
       <c r="N8">
-        <v>19.56779847058596</v>
+        <v>12.9333537963444</v>
       </c>
       <c r="O8">
-        <v>22.69214874764325</v>
+        <v>14.00228014539116</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.80163083791589</v>
+        <v>14.01571632950058</v>
       </c>
       <c r="C9">
-        <v>11.28566623721214</v>
+        <v>7.691356400096956</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.39793299747578</v>
+        <v>8.305382740820942</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>29.86596217170812</v>
+        <v>20.15391273241511</v>
       </c>
       <c r="H9">
-        <v>14.70275464345141</v>
+        <v>8.618454829927675</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.103785188070265</v>
+        <v>11.29783000287708</v>
       </c>
       <c r="L9">
-        <v>9.882340727553672</v>
+        <v>6.362841654780084</v>
       </c>
       <c r="M9">
-        <v>13.69343013234871</v>
+        <v>10.0098387718785</v>
       </c>
       <c r="N9">
-        <v>19.44550879453419</v>
+        <v>12.54366675972582</v>
       </c>
       <c r="O9">
-        <v>22.50132861034478</v>
+        <v>13.7168644485298</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.18757443620318</v>
+        <v>15.26633970846506</v>
       </c>
       <c r="C10">
-        <v>11.2519440822221</v>
+        <v>7.60834792735126</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.3577283591835</v>
+        <v>8.350413792847302</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>29.70224528409369</v>
+        <v>20.24214179048741</v>
       </c>
       <c r="H10">
-        <v>14.63330356304789</v>
+        <v>8.481377137701092</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.39601285125652</v>
+        <v>12.11312592431877</v>
       </c>
       <c r="L10">
-        <v>9.882745365477742</v>
+        <v>6.530402395790704</v>
       </c>
       <c r="M10">
-        <v>13.76734548632091</v>
+        <v>10.536968862199</v>
       </c>
       <c r="N10">
-        <v>19.36349229397878</v>
+        <v>12.27036288281339</v>
       </c>
       <c r="O10">
-        <v>22.37979132968457</v>
+        <v>13.560025077194</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.36063670390971</v>
+        <v>15.80418217753899</v>
       </c>
       <c r="C11">
-        <v>11.23749906490138</v>
+        <v>7.572373251014673</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.34147920372711</v>
+        <v>8.376003887049837</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>29.63593735714563</v>
+        <v>20.31163692434161</v>
       </c>
       <c r="H11">
-        <v>14.60366925046587</v>
+        <v>8.42409139510435</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.526277596857598</v>
+        <v>12.4663709945869</v>
       </c>
       <c r="L11">
-        <v>9.884251819063358</v>
+        <v>6.608162272264968</v>
       </c>
       <c r="M11">
-        <v>13.80261876070499</v>
+        <v>10.77159968319682</v>
       </c>
       <c r="N11">
-        <v>19.32786626909463</v>
+        <v>12.14872268557304</v>
       </c>
       <c r="O11">
-        <v>22.32855287477526</v>
+        <v>13.50145743049304</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.42574908636362</v>
+        <v>16.00342324138501</v>
       </c>
       <c r="C12">
-        <v>11.23215730140395</v>
+        <v>7.559008874586577</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.33561906524219</v>
+        <v>8.38644617402587</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>29.61200755867572</v>
+        <v>20.34238762005155</v>
       </c>
       <c r="H12">
-        <v>14.59272871250515</v>
+        <v>8.403164010482303</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.575177295740396</v>
+        <v>12.59758285642101</v>
       </c>
       <c r="L12">
-        <v>9.885011328610078</v>
+        <v>6.637810927336099</v>
       </c>
       <c r="M12">
-        <v>13.81620576921196</v>
+        <v>10.85963731831295</v>
       </c>
       <c r="N12">
-        <v>19.31461665107308</v>
+        <v>12.10303679120322</v>
       </c>
       <c r="O12">
-        <v>22.30973268358599</v>
+        <v>13.48123176139037</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.4117457153051</v>
+        <v>15.96070941553495</v>
       </c>
       <c r="C13">
-        <v>11.23330204967287</v>
+        <v>7.561875610075005</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.33686812202464</v>
+        <v>8.384163528388669</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>29.61710872829209</v>
+        <v>20.33556442938668</v>
       </c>
       <c r="H13">
-        <v>14.59507244724384</v>
+        <v>8.407636444109063</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.564665615679619</v>
+        <v>12.56943785446176</v>
       </c>
       <c r="L13">
-        <v>9.88483936514792</v>
+        <v>6.631416829443467</v>
       </c>
       <c r="M13">
-        <v>13.81326946325653</v>
+        <v>10.84071396142578</v>
       </c>
       <c r="N13">
-        <v>19.3174594812887</v>
+        <v>12.11285947285379</v>
       </c>
       <c r="O13">
-        <v>22.31376002639161</v>
+        <v>13.48549899244646</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.36600235094369</v>
+        <v>15.82066237637777</v>
       </c>
       <c r="C14">
-        <v>11.23705702731166</v>
+        <v>7.571268566163866</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.34099121503085</v>
+        <v>8.376847813322923</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>29.63394496941179</v>
+        <v>20.31407675542905</v>
       </c>
       <c r="H14">
-        <v>14.60276352983095</v>
+        <v>8.422354127280972</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.530309441364242</v>
+        <v>12.47721714562102</v>
       </c>
       <c r="L14">
-        <v>9.884310522187942</v>
+        <v>6.610597525525209</v>
       </c>
       <c r="M14">
-        <v>13.80373200964149</v>
+        <v>10.77885923137251</v>
       </c>
       <c r="N14">
-        <v>19.32677138662388</v>
+        <v>12.14495658807824</v>
       </c>
       <c r="O14">
-        <v>22.32699284585764</v>
+        <v>13.49975364223721</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.33792640579881</v>
+        <v>15.73430403516791</v>
       </c>
       <c r="C15">
-        <v>11.23937374683708</v>
+        <v>7.577055731559454</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.34355488452554</v>
+        <v>8.372465153328887</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>29.64441141596487</v>
+        <v>20.30149853098389</v>
       </c>
       <c r="H15">
-        <v>14.60751116571227</v>
+        <v>8.431469946404633</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.509208188255716</v>
+        <v>12.42039622661713</v>
       </c>
       <c r="L15">
-        <v>9.884011176042172</v>
+        <v>6.597870963383849</v>
       </c>
       <c r="M15">
-        <v>13.79791974725934</v>
+        <v>10.74086377328651</v>
       </c>
       <c r="N15">
-        <v>19.33250657950919</v>
+        <v>12.16466575172812</v>
       </c>
       <c r="O15">
-        <v>22.33517422642738</v>
+        <v>13.50874281616961</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.17620858965222</v>
+        <v>15.23056858393491</v>
       </c>
       <c r="C16">
-        <v>11.2529060721064</v>
+        <v>7.610735033017322</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.3588313071294</v>
+        <v>8.348845689053491</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>29.7067434555293</v>
+        <v>20.23820933882785</v>
       </c>
       <c r="H16">
-        <v>14.63527962595162</v>
+        <v>8.485225976234116</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.387442106968427</v>
+        <v>12.08968390192708</v>
       </c>
       <c r="L16">
-        <v>9.882673431901821</v>
+        <v>6.525349946825846</v>
       </c>
       <c r="M16">
-        <v>13.76507285412756</v>
+        <v>10.52152514007877</v>
       </c>
       <c r="N16">
-        <v>19.36585433902293</v>
+        <v>12.27836559153336</v>
       </c>
       <c r="O16">
-        <v>22.38322140194683</v>
+        <v>13.56411947501235</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.07631280943392</v>
+        <v>14.91361305163179</v>
       </c>
       <c r="C17">
-        <v>11.2614366808259</v>
+        <v>7.631854774084101</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.36872521864165</v>
+        <v>8.335676413196238</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>29.74707775082602</v>
+        <v>20.2070579281501</v>
       </c>
       <c r="H17">
-        <v>14.65281620854823</v>
+        <v>8.519527347794472</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.312025669641598</v>
+        <v>11.88227000367353</v>
       </c>
       <c r="L17">
-        <v>9.882190698771378</v>
+        <v>6.481240954031936</v>
       </c>
       <c r="M17">
-        <v>13.74533953067183</v>
+        <v>10.38559321212344</v>
       </c>
       <c r="N17">
-        <v>19.38674267867842</v>
+        <v>12.34879804654784</v>
       </c>
       <c r="O17">
-        <v>22.41373422696612</v>
+        <v>13.60144453510383</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.0186230778384</v>
+        <v>14.72838150518614</v>
       </c>
       <c r="C18">
-        <v>11.26642756650998</v>
+        <v>7.644170318660295</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.374607982423</v>
+        <v>8.328581322141806</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>29.77104546168364</v>
+        <v>20.19189184193401</v>
       </c>
       <c r="H18">
-        <v>14.6630872327651</v>
+        <v>8.539731611092025</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.26839918318197</v>
+        <v>11.76131150377184</v>
       </c>
       <c r="L18">
-        <v>9.882037583519915</v>
+        <v>6.456016243838573</v>
       </c>
       <c r="M18">
-        <v>13.73414509341077</v>
+        <v>10.30692633251194</v>
       </c>
       <c r="N18">
-        <v>19.39891563098315</v>
+        <v>12.38956244589331</v>
       </c>
       <c r="O18">
-        <v>22.43166552724204</v>
+        <v>13.6241085744932</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.99905238082542</v>
+        <v>14.66516134575711</v>
       </c>
       <c r="C19">
-        <v>11.26813188947122</v>
+        <v>7.648368964242722</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.37663277827253</v>
+        <v>8.32626084945268</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>29.77929234849215</v>
+        <v>20.18722275377389</v>
       </c>
       <c r="H19">
-        <v>14.66659651671626</v>
+        <v>8.546652957678305</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.253586659561869</v>
+        <v>11.72007268668153</v>
       </c>
       <c r="L19">
-        <v>9.882007163709751</v>
+        <v>6.447501158581239</v>
       </c>
       <c r="M19">
-        <v>13.7303818005272</v>
+        <v>10.28021048734957</v>
       </c>
       <c r="N19">
-        <v>19.40306443997047</v>
+        <v>12.40340840965874</v>
       </c>
       <c r="O19">
-        <v>22.43780220521704</v>
+        <v>13.63198416422301</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.08697139262368</v>
+        <v>14.9476561661358</v>
       </c>
       <c r="C20">
-        <v>11.26051986134114</v>
+        <v>7.629589140454573</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.36765212078105</v>
+        <v>8.337028544219855</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>29.74270452302016</v>
+        <v>20.21008771473419</v>
       </c>
       <c r="H20">
-        <v>14.65093032300841</v>
+        <v>8.515826492458554</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.320079976523076</v>
+        <v>11.90452147518662</v>
       </c>
       <c r="L20">
-        <v>9.8822292048936</v>
+        <v>6.485921493561634</v>
       </c>
       <c r="M20">
-        <v>13.74742411974083</v>
+        <v>10.40011385971281</v>
       </c>
       <c r="N20">
-        <v>19.38450267858058</v>
+        <v>12.34127422447114</v>
       </c>
       <c r="O20">
-        <v>22.41044663629727</v>
+        <v>13.59734665682939</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.3794502318213</v>
+        <v>15.86191744502337</v>
       </c>
       <c r="C21">
-        <v>11.23595062262668</v>
+        <v>7.568502599330008</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.33977221159002</v>
+        <v>8.378976073793698</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>29.62896770447962</v>
+        <v>20.32026622287536</v>
       </c>
       <c r="H21">
-        <v>14.60049684039976</v>
+        <v>8.4180101088104</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.540412658265788</v>
+        <v>12.5043740376827</v>
       </c>
       <c r="L21">
-        <v>9.884460734689249</v>
+        <v>6.61670730178632</v>
       </c>
       <c r="M21">
-        <v>13.80652721421814</v>
+        <v>10.79705001053843</v>
       </c>
       <c r="N21">
-        <v>19.32402971596379</v>
+        <v>12.13551874461854</v>
       </c>
       <c r="O21">
-        <v>22.32309022852172</v>
+        <v>13.49551277069754</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.56811285909376</v>
+        <v>16.43364809703519</v>
       </c>
       <c r="C22">
-        <v>11.22064052122463</v>
+        <v>7.530086351960219</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.3232591158006</v>
+        <v>8.410781270928162</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>29.56151180110435</v>
+        <v>20.41821110887358</v>
       </c>
       <c r="H22">
-        <v>14.56917528401641</v>
+        <v>8.358562213695327</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.681895347611556</v>
+        <v>12.88151991910994</v>
       </c>
       <c r="L22">
-        <v>9.88702051723541</v>
+        <v>6.703356665047511</v>
       </c>
       <c r="M22">
-        <v>13.84649029484054</v>
+        <v>11.05171202707899</v>
       </c>
       <c r="N22">
-        <v>19.2859125246342</v>
+        <v>12.00323622273967</v>
       </c>
       <c r="O22">
-        <v>22.26939437696759</v>
+        <v>13.44039677847788</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.46766745534674</v>
+        <v>16.13085127377345</v>
       </c>
       <c r="C23">
-        <v>11.22874359515057</v>
+        <v>7.550451329096544</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.33191628963915</v>
+        <v>8.393398928666874</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>29.59688335103118</v>
+        <v>20.3634957929807</v>
       </c>
       <c r="H23">
-        <v>14.58574229535131</v>
+        <v>8.389867945423063</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.606627648470006</v>
+        <v>12.68159691719987</v>
       </c>
       <c r="L23">
-        <v>9.885553925951667</v>
+        <v>6.657008794377645</v>
       </c>
       <c r="M23">
-        <v>13.82504150336654</v>
+        <v>10.91625018290386</v>
       </c>
       <c r="N23">
-        <v>19.3061280976057</v>
+        <v>12.07364070706557</v>
       </c>
       <c r="O23">
-        <v>22.29774194045895</v>
+        <v>13.46872731122571</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.08215344698595</v>
+        <v>14.93227465128327</v>
       </c>
       <c r="C24">
-        <v>11.26093408588207</v>
+        <v>7.630612893047076</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.36813666208222</v>
+        <v>8.336415764190853</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>29.74467923322542</v>
+        <v>20.20870941979331</v>
       </c>
       <c r="H24">
-        <v>14.65178234307988</v>
+        <v>8.517498144469075</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.316439457495147</v>
+        <v>11.89446692058807</v>
       </c>
       <c r="L24">
-        <v>9.882211408659693</v>
+        <v>6.483805002450022</v>
       </c>
       <c r="M24">
-        <v>13.74648120764046</v>
+        <v>10.39355068240798</v>
       </c>
       <c r="N24">
-        <v>19.38551487180618</v>
+        <v>12.34467489696186</v>
       </c>
       <c r="O24">
-        <v>22.41193174414526</v>
+        <v>13.5991955617988</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.65771456075827</v>
+        <v>13.52734738376165</v>
       </c>
       <c r="C25">
-        <v>11.29888203708117</v>
+        <v>7.723499601313301</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.41454951449291</v>
+        <v>8.293202635371825</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>29.93345992741104</v>
+        <v>20.14597962721217</v>
       </c>
       <c r="H25">
-        <v>14.73007088876406</v>
+        <v>8.673207697778958</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.994114890330914</v>
+        <v>10.98211579316021</v>
       </c>
       <c r="L25">
-        <v>9.883371067021125</v>
+        <v>6.302618597353255</v>
       </c>
       <c r="M25">
-        <v>13.667718695334</v>
+        <v>9.811653122011235</v>
       </c>
       <c r="N25">
-        <v>19.47721143240253</v>
+        <v>12.64676139316562</v>
       </c>
       <c r="O25">
-        <v>22.54967403599906</v>
+        <v>13.78521905116211</v>
       </c>
     </row>
   </sheetData>
